--- a/2022_Model_Analysis.xlsx
+++ b/2022_Model_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jesse/Documents/MyStuff/NBA Betting/MAMBA-NBA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43142387-1413-9943-9A39-1AAE4CCE1B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7E1F1-4477-E444-9526-60C7C3DB32E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="24040" windowHeight="14200" activeTab="6" xr2:uid="{B86B4991-FA4B-7E49-82D5-A0F8A8C69F1D}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="24040" windowHeight="14200" activeTab="4" xr2:uid="{B86B4991-FA4B-7E49-82D5-A0F8A8C69F1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Totals" sheetId="3" r:id="rId3"/>
     <sheet name="2021 Model Performance" sheetId="6" r:id="rId4"/>
     <sheet name="2022 Model Performance" sheetId="4" r:id="rId5"/>
-    <sheet name="Metrics" sheetId="7" r:id="rId6"/>
-    <sheet name="2022 Models" sheetId="8" r:id="rId7"/>
+    <sheet name="2022 Model Performance (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="Metrics" sheetId="7" r:id="rId7"/>
+    <sheet name="2022 Models" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="77">
   <si>
     <t>eFG</t>
   </si>
@@ -256,10 +257,22 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Joan/Cara</t>
+    <t>Top Model</t>
   </si>
   <si>
-    <t>Top Model</t>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Ready?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>All Full</t>
+  </si>
+  <si>
+    <t>All Adj Full</t>
   </si>
 </sst>
 </file>
@@ -420,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,15 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -472,9 +476,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyAlignment="1">
@@ -826,30 +827,30 @@
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="21"/>
+      <c r="O1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -876,15 +877,15 @@
       <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -936,10 +937,10 @@
         <f>MIN(O3:P3)</f>
         <v>13.2676</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="1">
         <f>_xlfn.RANK.AVG(Q3,$Q$3:$Q$14,1)</f>
         <v>5</v>
       </c>
@@ -994,10 +995,10 @@
         <f t="shared" ref="Q4:Q14" si="6">MIN(O4:P4)</f>
         <v>13.2348</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="1">
         <f t="shared" ref="S4:S14" si="7">_xlfn.RANK.AVG(Q4,$Q$3:$Q$14,1)</f>
         <v>2</v>
       </c>
@@ -1052,10 +1053,10 @@
         <f t="shared" si="6"/>
         <v>13.257099999999999</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -1110,10 +1111,10 @@
         <f t="shared" si="6"/>
         <v>13.2522</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="1">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -1168,10 +1169,10 @@
         <f t="shared" si="6"/>
         <v>13.3726</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="1">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -1226,10 +1227,10 @@
         <f t="shared" si="6"/>
         <v>13.912100000000001</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="1">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
@@ -1284,10 +1285,10 @@
         <f t="shared" si="6"/>
         <v>13.4176</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="1">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -1342,10 +1343,10 @@
         <f t="shared" si="6"/>
         <v>13.411199999999999</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="1">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
@@ -1400,10 +1401,10 @@
         <f t="shared" si="6"/>
         <v>13.2906</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="1">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
@@ -1458,10 +1459,10 @@
         <f t="shared" si="6"/>
         <v>8.9276999999999997</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -1516,10 +1517,10 @@
         <f t="shared" si="6"/>
         <v>13.2765</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="1">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -1574,27 +1575,27 @@
         <f t="shared" si="6"/>
         <v>13.270099999999999</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="1">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -1682,18 +1683,18 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <v>13.295999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="5">
         <v>13.7094</v>
       </c>
     </row>
@@ -2173,29 +2174,29 @@
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="21"/>
+      <c r="O1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -2222,14 +2223,14 @@
       <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2249,8 +2250,8 @@
         <f>B18</f>
         <v>0.35270000000000001</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
         <f>RANK(O3,$O$3:$O$14,1)</f>
         <v>1</v>
       </c>
@@ -2273,8 +2274,8 @@
         <f t="shared" ref="P4:P14" si="1">B19</f>
         <v>0.34470000000000001</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
         <f t="shared" ref="R4:R14" si="2">RANK(O4,$O$3:$O$14,1)</f>
         <v>1</v>
       </c>
@@ -2297,8 +2298,8 @@
         <f t="shared" si="1"/>
         <v>0.34889999999999999</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2321,8 +2322,8 @@
         <f t="shared" si="1"/>
         <v>0.3513</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2345,8 +2346,8 @@
         <f t="shared" si="1"/>
         <v>0.34889999999999999</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2369,8 +2370,8 @@
         <f t="shared" si="1"/>
         <v>0.37540000000000001</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2393,8 +2394,8 @@
         <f t="shared" si="1"/>
         <v>0.36780000000000002</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2417,8 +2418,8 @@
         <f t="shared" si="1"/>
         <v>0.35549999999999998</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2441,8 +2442,8 @@
         <f t="shared" si="1"/>
         <v>0.34699999999999998</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2465,8 +2466,8 @@
         <f t="shared" si="1"/>
         <v>0.41560000000000002</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2489,7 +2490,7 @@
         <f t="shared" si="1"/>
         <v>0.35980000000000001</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2512,7 +2513,7 @@
         <f t="shared" si="1"/>
         <v>0.36830000000000002</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2521,10 +2522,10 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -2813,29 +2814,29 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="21"/>
+      <c r="O1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -2862,10 +2863,10 @@
       <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2881,10 +2882,10 @@
         <f>MIN(J3:M3)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="1">
         <f>RANK(O3,$O$3:$O$14,1)</f>
         <v>1</v>
       </c>
@@ -2903,10 +2904,10 @@
         <f t="shared" ref="O4:O14" si="0">MIN(J4:M4)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="1">
         <f t="shared" ref="R4:R14" si="1">RANK(O4,$O$3:$O$14,1)</f>
         <v>1</v>
       </c>
@@ -2925,10 +2926,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2947,10 +2948,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2969,10 +2970,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2991,10 +2992,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3013,10 +3014,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3035,10 +3036,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3057,10 +3058,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3079,10 +3080,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3101,7 +3102,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3120,7 +3121,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3129,29 +3130,29 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="25" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="J16" s="25" t="s">
+      <c r="G16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="O16" s="24" t="s">
+      <c r="M16" s="21"/>
+      <c r="O16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -3178,10 +3179,10 @@
       <c r="M17" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -3197,10 +3198,10 @@
         <f>MIN(J18:M18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="1">
         <f>RANK(O18,$O$3:$O$14,1)</f>
         <v>1</v>
       </c>
@@ -3219,10 +3220,10 @@
         <f t="shared" ref="O19:O29" si="2">MIN(J19:M19)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="1">
         <f t="shared" ref="R19:R29" si="3">RANK(O19,$O$3:$O$14,1)</f>
         <v>1</v>
       </c>
@@ -3241,10 +3242,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3263,10 +3264,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3285,10 +3286,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3307,10 +3308,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3329,10 +3330,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3351,10 +3352,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3373,10 +3374,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3395,10 +3396,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3417,7 +3418,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3436,7 +3437,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3732,7 +3733,7 @@
   <cols>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="18"/>
+    <col min="10" max="10" width="10.83203125" style="15"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" customWidth="1"/>
     <col min="28" max="28" width="2.83203125" customWidth="1"/>
@@ -3766,7 +3767,7 @@
       <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -3783,385 +3784,385 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>9.4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>9.4</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>33.200000000000003</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>28.8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <v>7.4</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="10">
         <v>7.4</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>0.1</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <v>8.6</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="9">
         <f>AVERAGE(C2:G2)</f>
         <v>20.2</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="9">
         <f>AVERAGE(H2:L2)</f>
         <v>5.875</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>21</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>21</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>7.1</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>36.6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>5.7</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>5.7</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>0.1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>3</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="9">
         <f>AVERAGE(C3:G3)</f>
         <v>21.425000000000001</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="9">
         <f>AVERAGE(H3:L3)</f>
         <v>3.625</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>11.9</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>11.9</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>9.1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>21.8</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>5.4</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>5.4</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>0.1</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <v>9.5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f>AVERAGE(C5:G5)</f>
         <v>11.38</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <f>AVERAGE(H5:L5)</f>
         <v>5.82</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>14.25</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>12.2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>13</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>5.7</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>5.7</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="14">
         <v>0.1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <v>5.9</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <v>3.6</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <f t="shared" ref="M6:M10" si="0">AVERAGE(C6:G6)</f>
         <v>11.809999999999999</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <f t="shared" ref="N6:N10" si="1">AVERAGE(H6:L6)</f>
         <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>28.5</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>31.8</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>11.4</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>0.1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="11">
         <v>6.9</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>23.900000000000002</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <f t="shared" si="1"/>
         <v>5.1000000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>42.25</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>17.8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>15.2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>4</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>0.1</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <f t="shared" si="0"/>
         <v>18.53</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>37.4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>27.8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>9.4</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>0.1</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>8.5</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="11">
         <v>7</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="9">
         <f t="shared" si="0"/>
         <v>24.866666666666671</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="9">
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>5.3</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>5.3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>39.1</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>22.2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>15.8</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>3.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>3.5</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>0.1</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>4.8</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="9">
         <f t="shared" si="0"/>
         <v>17.54</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
         <v>4.24</v>
       </c>
@@ -4173,1176 +4174,1176 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>6.9</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>21.25</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>26.2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>0.2</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>6</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>0.1</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <v>6.5</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="10">
         <v>6.4</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="10">
         <f>AVERAGE(C12:G12)</f>
         <v>12.51</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="10">
         <f>AVERAGE(H12:L12)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="10">
         <v>37.049999999999997</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="10">
         <v>25.8</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="10">
         <v>7.3</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="10">
         <v>5.3</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="13">
         <v>0.1</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="10">
         <v>7.1</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="Y12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="10">
         <f>AVERAGE(P12:T12)</f>
         <v>18.212499999999999</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="10">
         <f>AVERAGE(U12:Y12)</f>
         <v>4.9499999999999993</v>
       </c>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13" t="e">
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10" t="e">
         <f>AVERAGE(AC12:AG12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="13" t="e">
+      <c r="AN12" s="10" t="e">
         <f>AVERAGE(AH12:AL12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>4.5</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>4.8</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>26.85</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>14.6</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>11</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>9.9</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>7.1</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <v>0.1</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <v>6.4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>6.9</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <f t="shared" ref="M13:M17" si="2">AVERAGE(C13:G13)</f>
         <v>12.350000000000001</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="10">
         <f t="shared" ref="N13:N17" si="3">AVERAGE(H13:L13)</f>
         <v>6.08</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <v>2.4</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <v>11.2</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="10">
         <v>41.7</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="10">
         <v>16.2</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="10">
         <v>3.9</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="13">
         <v>0.1</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="10">
         <v>8.9</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="10">
         <v>6.2</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="10">
         <f t="shared" ref="Z13:Z17" si="4">AVERAGE(P13:T13)</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="10">
         <f t="shared" ref="AA13:AA17" si="5">AVERAGE(U13:Y13)</f>
         <v>5.76</v>
       </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13" t="e">
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10" t="e">
         <f t="shared" ref="AM13:AM17" si="6">AVERAGE(AC13:AG13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN13" s="13" t="e">
+      <c r="AN13" s="10" t="e">
         <f t="shared" ref="AN13:AN17" si="7">AVERAGE(AH13:AL13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>0.8</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>0.5</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>36.700000000000003</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>30.2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>3.7</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>3.9</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <v>0.1</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <v>7.7</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <v>7.4</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <f t="shared" si="2"/>
         <v>15.280000000000001</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <f t="shared" si="3"/>
         <v>4.5599999999999996</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="10">
         <v>53.95</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="10">
         <v>29.8</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="10">
         <v>8</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="U14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="V14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="13">
         <v>0.1</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y14" s="10">
         <v>7.2</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="10">
         <f t="shared" si="4"/>
         <v>30.583333333333332</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="10">
         <f t="shared" si="5"/>
         <v>5.2</v>
       </c>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13" t="e">
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="13" t="e">
+      <c r="AN14" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>6.8</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>7.5</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>42.55</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>18</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>18.399999999999999</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>4.3</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>4.2</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>0.1</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="10">
         <v>5</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <f t="shared" si="2"/>
         <v>18.649999999999999</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="10">
         <f t="shared" si="3"/>
         <v>4.5599999999999996</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <v>5.9</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <v>7.8</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="10">
         <v>34.25</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="10">
         <v>20</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="10">
         <v>12</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="10">
         <v>4.3</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="13">
         <v>0.1</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="10">
         <v>9.1</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="10">
         <v>8</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="10">
         <f t="shared" si="4"/>
         <v>15.99</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="10">
         <f t="shared" si="5"/>
         <v>5.1199999999999992</v>
       </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13" t="e">
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN15" s="13" t="e">
+      <c r="AN15" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>3.3</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>36.25</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>25.6</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <v>1.4</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>0.1</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="10">
         <v>7.3</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="10">
         <f t="shared" si="2"/>
         <v>18.737500000000001</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="10">
         <f t="shared" si="3"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="10">
         <v>36.299999999999997</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="10">
         <v>27.6</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="10">
         <v>8.4</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V16" s="13" t="s">
+      <c r="V16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="13">
         <v>0.1</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="10">
         <v>7.4</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="10">
         <f t="shared" si="4"/>
         <v>24.099999999999998</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="10">
         <f t="shared" si="5"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13" t="e">
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN16" s="13" t="e">
+      <c r="AN16" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>2.9</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>44.75</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>18.2</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>14.2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="13">
         <v>0.1</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>9.1</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <f t="shared" si="2"/>
         <v>17.03</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="10">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="10">
         <v>3.3</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="10">
         <v>41.75</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="10">
         <v>20.2</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="10">
         <v>10</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="10">
         <v>3.5</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="10">
         <v>4</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W17" s="13">
         <v>0.1</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="10">
         <v>9.1</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Y17" s="10">
         <v>8.4</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="10">
         <f t="shared" si="4"/>
         <v>16.07</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="10">
         <f t="shared" si="5"/>
         <v>5.0200000000000005</v>
       </c>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13" t="e">
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN17" s="13" t="e">
+      <c r="AN17" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C11 F11 I11 L11">
@@ -5645,7 +5646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25 F25 I25 L25">
+  <conditionalFormatting sqref="F25 C25 I25 L25">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5657,7 +5658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39 F39 I39 L39">
+  <conditionalFormatting sqref="F39 C39 I39 L39">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5669,7 +5670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18 F18 I18 L18">
+  <conditionalFormatting sqref="F18 C18 I18 L18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5681,7 +5682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32 F32 I32 L32">
+  <conditionalFormatting sqref="F32 C32 I32 L32">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -6256,13 +6257,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839F9A0F-BC90-5E4B-81CF-AA3A945FA414}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="18"/>
+    <col min="10" max="10" width="10.83203125" style="15"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" customWidth="1"/>
     <col min="28" max="28" width="2.83203125" customWidth="1"/>
@@ -6296,7 +6297,7 @@
       <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -6313,385 +6314,385 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>5.9</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>5.9</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <v>6.6</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="10">
         <v>6.6</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="13">
         <v>0.2</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="9">
         <f>AVERAGE(C2:G2)</f>
         <v>6.7</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="9">
         <f>AVERAGE(H2:L2)</f>
         <v>4.4666666666666659</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>7.65</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>7.3</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>7.3</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <v>0.3</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="9">
         <f>AVERAGE(C3:G3)</f>
         <v>14.283333333333333</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="9">
         <f>AVERAGE(H3:L3)</f>
         <v>4.9666666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>3.1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>3.1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>9.9</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>9.9</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="14">
         <v>0.3</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f>AVERAGE(C5:G5)</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <f>AVERAGE(H5:L5)</f>
         <v>6.7</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>11.4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>11.4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>9.1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>7.3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>7.3</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <v>9.9</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <f t="shared" ref="M6:M10" si="0">AVERAGE(C6:G6)</f>
         <v>10.633333333333333</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <f t="shared" ref="N6:N10" si="1">AVERAGE(H6:L6)</f>
         <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>8.6</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>8.6</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>1.45</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>7.2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>7.2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>0.2</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>7.7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>7.7</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>6.4</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>6.4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="14">
         <v>0.4</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <f t="shared" si="0"/>
         <v>5.4666666666666659</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>7.1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>7.1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>9.6</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="11">
         <v>7.4</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>7.4</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="14">
         <v>0.2</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="9">
         <f t="shared" si="0"/>
         <v>6.1999999999999993</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="9">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>9</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>9</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>2.6</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>6.3</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>6.3</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>0.4</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>3.1</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="9">
         <f t="shared" si="0"/>
         <v>5.65</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
         <v>4.0250000000000004</v>
       </c>
@@ -6703,1176 +6704,1176 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>12.25</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>1.4</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>9.9</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>0.3</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="10">
         <v>10</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="10">
         <f>AVERAGE(C12:G12)</f>
         <v>3.9624999999999999</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="10">
         <f>AVERAGE(H12:L12)</f>
         <v>7.5000000000000009</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <v>3.5</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="10">
         <v>2.5</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="10">
         <v>10.25</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="10">
         <v>3.4</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="10">
         <v>9</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="10">
         <v>6.1</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="13">
         <v>0.3</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="10">
         <v>10</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="10">
         <f>AVERAGE(P12:T12)</f>
         <v>4.9124999999999996</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="10">
         <f>AVERAGE(U12:Y12)</f>
         <v>6.35</v>
       </c>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13" t="e">
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10" t="e">
         <f>AVERAGE(AC12:AG12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="13" t="e">
+      <c r="AN12" s="10" t="e">
         <f>AVERAGE(AH12:AL12)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>11.3</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>11.9</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>3.75</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>3.8</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>7.3</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>6.3</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <v>0.3</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>9.9</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <f t="shared" ref="M13:M17" si="2">AVERAGE(C13:G13)</f>
         <v>7.6875000000000009</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="10">
         <f t="shared" ref="N13:N17" si="3">AVERAGE(H13:L13)</f>
         <v>5.95</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <v>12.2</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <v>13.9</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="10">
         <v>4.55</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="10">
         <v>6.6</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="10">
         <v>7.2</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="13">
         <v>0.4</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="X13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Y13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="10">
         <f t="shared" ref="Z13:Z17" si="4">AVERAGE(P13:T13)</f>
         <v>10.216666666666667</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="10">
         <f t="shared" ref="AA13:AA17" si="5">AVERAGE(U13:Y13)</f>
         <v>4.7333333333333334</v>
       </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13" t="e">
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10" t="e">
         <f t="shared" ref="AM13:AM17" si="6">AVERAGE(AC13:AG13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN13" s="13" t="e">
+      <c r="AN13" s="10" t="e">
         <f t="shared" ref="AN13:AN17" si="7">AVERAGE(AH13:AL13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>7.9</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>6.8</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>2.8</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>7.3</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>7.3</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <f t="shared" si="2"/>
         <v>5.833333333333333</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <f t="shared" si="3"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="10">
         <v>0.3</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="10">
         <v>7.3</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="10">
         <v>7.2</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="13" t="s">
+      <c r="X14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="Y14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="10">
         <f t="shared" si="4"/>
         <v>4.5500000000000007</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="10">
         <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13" t="e">
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="13" t="e">
+      <c r="AN14" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>6.3</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>6.3</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>1.2</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>0.4</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>3.2</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="10">
         <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <v>5.9</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <v>5.4</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="10">
         <v>3</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="10">
         <v>1.2</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="10">
         <v>6.4</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="10">
         <v>6.1</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="13">
         <v>0.4</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="10">
         <v>3.1</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="Y15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="10">
         <f t="shared" si="4"/>
         <v>3.875</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="10">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13" t="e">
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN15" s="13" t="e">
+      <c r="AN15" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>5.9</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>5</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>4.2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="10">
         <v>5.2</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <v>4</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>0.2</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>2</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="10">
         <f t="shared" si="2"/>
         <v>4.3250000000000002</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="10">
         <f t="shared" si="3"/>
         <v>2.8499999999999996</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="10">
         <v>4.5</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="10">
         <v>10.8</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="10">
         <v>1.2</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="10">
         <v>3.4</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="10">
         <v>5.2</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="13">
         <v>0.2</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="Y16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="10">
         <f t="shared" si="4"/>
         <v>4.9749999999999996</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="10">
         <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13" t="e">
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN16" s="13" t="e">
+      <c r="AN16" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>6.7</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>7.8</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>6.4</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>5.9</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>6.7</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>3</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <f t="shared" si="2"/>
         <v>6.9666666666666659</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="10">
         <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="10">
         <v>13.6</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="10">
         <v>3</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="10">
         <v>6</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="10">
         <v>6.4</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W17" s="13">
         <v>0.4</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="10">
         <v>3</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="Y17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="10">
         <f t="shared" si="4"/>
         <v>7.2999999999999989</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="10">
         <f t="shared" si="5"/>
         <v>3.95</v>
       </c>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13" t="e">
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN17" s="13" t="e">
+      <c r="AN17" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C11 F11 I11 L11">
@@ -8175,7 +8176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25 F25 I25 L25">
+  <conditionalFormatting sqref="F25 C25 I25 L25">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -8187,7 +8188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39 F39 I39 L39">
+  <conditionalFormatting sqref="F39 C39 I39 L39">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -8199,7 +8200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18 F18 I18 L18">
+  <conditionalFormatting sqref="F18 C18 I18 L18">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -8211,7 +8212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32 F32 I32 L32">
+  <conditionalFormatting sqref="F32 C32 I32 L32">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -8783,6 +8784,1755 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD9E797-03DD-6C46-A91B-03E8ED171539}">
+  <dimension ref="A1:W45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="24" max="24" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="e">
+        <f>AVERAGE(C2:F2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="9" t="e">
+        <f>AVERAGE(G2:J2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9" t="e">
+        <f>AVERAGE(C3:F3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="9" t="e">
+        <f>AVERAGE(G3:J3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9">
+        <f>AVERAGE(C5:F5)</f>
+        <v>4.45</v>
+      </c>
+      <c r="L5" s="9">
+        <f>AVERAGE(G5:J5)</f>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9">
+        <f>AVERAGE(C6:F6)</f>
+        <v>3.35</v>
+      </c>
+      <c r="L6" s="9">
+        <f>AVERAGE(G6:J6)</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9">
+        <f>AVERAGE(C7:F7)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L7" s="9">
+        <f>AVERAGE(G7:J7)</f>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2.75</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9">
+        <f>AVERAGE(C8:F8)</f>
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="L8" s="9">
+        <f>AVERAGE(G8:J8)</f>
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9" t="e">
+        <f>AVERAGE(C9:F9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <f>AVERAGE(G9:J9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9" t="e">
+        <f>AVERAGE(C10:F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="9" t="e">
+        <f>AVERAGE(G10:J10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10">
+        <f>AVERAGE(C12:F12)</f>
+        <v>6.45</v>
+      </c>
+      <c r="L12" s="10">
+        <f>AVERAGE(G12:J12)</f>
+        <v>4.91</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10">
+        <f>AVERAGE(N12:Q12)</f>
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="W12" s="10">
+        <f>AVERAGE(R12:U12)</f>
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
+        <f>AVERAGE(C13:F13)</f>
+        <v>7.25</v>
+      </c>
+      <c r="L13" s="10">
+        <f>AVERAGE(G13:J13)</f>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="N13" s="10">
+        <v>14.1</v>
+      </c>
+      <c r="O13" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10">
+        <f t="shared" ref="V13:V17" si="0">AVERAGE(N13:Q13)</f>
+        <v>11</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" ref="W13:W17" si="1">AVERAGE(R13:U13)</f>
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
+        <f>AVERAGE(C14:F14)</f>
+        <v>8.1</v>
+      </c>
+      <c r="L14" s="10">
+        <f>AVERAGE(G14:J14)</f>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="N14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10">
+        <f t="shared" si="0"/>
+        <v>7.65</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10.3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10">
+        <f>AVERAGE(C15:F15)</f>
+        <v>11.05</v>
+      </c>
+      <c r="L15" s="10">
+        <f>AVERAGE(G15:J15)</f>
+        <v>1.67</v>
+      </c>
+      <c r="N15" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="O15" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10">
+        <f t="shared" si="0"/>
+        <v>12.15</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="e">
+        <f>AVERAGE(C16:F16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="10" t="e">
+        <f>AVERAGE(G16:J16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="e">
+        <f>AVERAGE(C17:F17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="10" t="e">
+        <f>AVERAGE(G17:J17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C11 J11 E11">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E10">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G10">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H10">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I10">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J10">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4 J4 E4">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25 J25 C25">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39 J39 C39">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 J18 C18">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32 J32 C32">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K10">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L10">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:L11">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L25">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:L39">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:L18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:L32">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D17">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E17">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F17">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G17">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H17">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I17">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J17">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K17">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L17">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N17">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O17">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P17">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q17">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:S17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T17">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U17">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:V17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:W17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B72D42D-C5CE-9E48-A8FA-55468D947D27}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -8797,220 +10547,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="26"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="1">
         <v>0.80000000000000071</v>
       </c>
       <c r="H2">
         <v>15.3</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="1">
         <v>0.80000000000000071</v>
       </c>
       <c r="J2">
         <v>15.3</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="1">
         <v>0.1</v>
       </c>
       <c r="L2">
         <v>41.5</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="1"/>
       <c r="N2">
         <v>28.8</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="1"/>
       <c r="P2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="1">
         <v>1.5999999999999996</v>
       </c>
       <c r="H3">
         <v>38.6</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="1">
         <v>1.5999999999999996</v>
       </c>
       <c r="J3">
         <v>38.6</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="1">
         <v>0.19999999999999998</v>
       </c>
       <c r="L3">
         <v>14.75</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="1"/>
       <c r="N3">
         <v>36.6</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="1"/>
       <c r="P3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="1">
         <v>4.5</v>
       </c>
       <c r="H5">
         <v>15</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="1">
         <v>4.5</v>
       </c>
       <c r="J5">
         <v>15</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="1">
         <v>0.19999999999999998</v>
       </c>
       <c r="L5">
         <v>20.100000000000001</v>
       </c>
-      <c r="M5" s="19"/>
+      <c r="M5" s="1"/>
       <c r="N5">
         <v>21.8</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="1"/>
       <c r="P5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="17"/>
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="1">
         <v>1.5999999999999996</v>
       </c>
       <c r="H6">
         <v>21.200000000000003</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="1">
         <v>1.5999999999999996</v>
       </c>
       <c r="J6">
         <v>21.200000000000003</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="1"/>
       <c r="L6">
         <v>14.25</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="1"/>
       <c r="N6">
         <v>12.2</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="1">
         <v>6.3000000000000007</v>
       </c>
       <c r="P6">
@@ -9018,182 +10768,182 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="19"/>
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="1"/>
       <c r="H7">
         <v>8.6</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="1"/>
       <c r="J7">
         <v>8.6</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="1">
         <v>0.1</v>
       </c>
       <c r="L7">
         <v>29.95</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="1">
         <v>6.1000000000000005</v>
       </c>
       <c r="N7">
         <v>36.799999999999997</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="O7" s="1"/>
       <c r="P7">
         <v>11.4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="1">
         <v>2.4000000000000004</v>
       </c>
       <c r="H8">
         <v>16.399999999999999</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="1">
         <v>2.4000000000000004</v>
       </c>
       <c r="J8">
         <v>16.399999999999999</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="1">
         <v>0.30000000000000004</v>
       </c>
       <c r="L8">
         <v>43.25</v>
       </c>
-      <c r="M8" s="19"/>
+      <c r="M8" s="1"/>
       <c r="N8">
         <v>17.8</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="1"/>
       <c r="P8">
         <v>15.2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="1"/>
       <c r="H9">
         <v>7.1</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="1"/>
       <c r="J9">
         <v>7.1</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="1">
         <v>0.1</v>
       </c>
       <c r="L9">
         <v>47</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="1">
         <v>6.3</v>
       </c>
       <c r="N9">
         <v>28.8</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="1"/>
       <c r="P9">
         <v>9.4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="1">
         <v>2.8</v>
       </c>
       <c r="H10">
         <v>14.3</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="1">
         <v>2.8</v>
       </c>
       <c r="J10">
         <v>14.3</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="1">
         <v>0.30000000000000004</v>
       </c>
       <c r="L10">
         <v>41.1</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="1">
         <v>6.2000000000000011</v>
       </c>
       <c r="N10">
         <v>24.8</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="1"/>
       <c r="P10">
         <v>15.8</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="1">
         <v>3.8000000000000007</v>
       </c>
       <c r="H12">
         <v>8</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="1">
         <v>5.9</v>
       </c>
       <c r="J12">
         <v>9.1</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="1">
         <v>0.19999999999999998</v>
       </c>
       <c r="L12">
         <v>33.5</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="1"/>
       <c r="N12">
         <v>26.2</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="1">
         <v>3.5999999999999996</v>
       </c>
       <c r="P12">
@@ -9201,35 +10951,35 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="1">
         <v>2.6000000000000005</v>
       </c>
       <c r="H13">
         <v>15.8</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="1">
         <v>0.79999999999999982</v>
       </c>
       <c r="J13">
         <v>16.7</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="1">
         <v>0.19999999999999998</v>
       </c>
       <c r="L13">
         <v>30.6</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="1"/>
       <c r="N13">
         <v>14.6</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="1">
         <v>3</v>
       </c>
       <c r="P13">
@@ -9237,346 +10987,346 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="1">
         <v>3.5999999999999996</v>
       </c>
       <c r="H14">
         <v>8.7000000000000011</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="1">
         <v>3.4</v>
       </c>
       <c r="J14">
         <v>7.3</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="1"/>
       <c r="L14">
         <v>36.700000000000003</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="1">
         <v>5.5</v>
       </c>
       <c r="N14">
         <v>33</v>
       </c>
-      <c r="O14" s="19"/>
+      <c r="O14" s="1"/>
       <c r="P14">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="1">
         <v>4.0000000000000009</v>
       </c>
       <c r="H15">
         <v>13.1</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="1">
         <v>4.1000000000000005</v>
       </c>
       <c r="J15">
         <v>13.8</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="1">
         <v>0.30000000000000004</v>
       </c>
       <c r="L15">
         <v>45.55</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="1">
         <v>5.9999999999999991</v>
       </c>
       <c r="N15">
         <v>19.2</v>
       </c>
-      <c r="O15" s="19"/>
+      <c r="O15" s="1"/>
       <c r="P15">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="1"/>
       <c r="H16">
         <v>5.9</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="1">
         <v>2.6</v>
       </c>
       <c r="J16">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="1">
         <v>0.1</v>
       </c>
       <c r="L16">
         <v>40.450000000000003</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="1">
         <v>6.3000000000000007</v>
       </c>
       <c r="N16">
         <v>27.8</v>
       </c>
-      <c r="O16" s="19"/>
+      <c r="O16" s="1"/>
       <c r="P16">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="1">
         <v>1.3000000000000007</v>
       </c>
       <c r="H17">
         <v>11.8</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="1">
         <v>2.1000000000000005</v>
       </c>
       <c r="J17">
         <v>10.7</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="1"/>
       <c r="L17">
         <v>44.75</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="1">
         <v>6.1</v>
       </c>
       <c r="N17">
         <v>24.6</v>
       </c>
-      <c r="O17" s="19"/>
+      <c r="O17" s="1"/>
       <c r="P17">
         <v>14.2</v>
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="1">
         <v>1.7000000000000002</v>
       </c>
       <c r="H19">
         <v>8.4</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="1">
         <v>0.79999999999999982</v>
       </c>
       <c r="J19">
         <v>7.6</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="1">
         <v>0.19999999999999998</v>
       </c>
       <c r="L19">
         <v>47.3</v>
       </c>
-      <c r="M19" s="19"/>
+      <c r="M19" s="1"/>
       <c r="N19">
         <v>25.8</v>
       </c>
-      <c r="O19" s="19"/>
+      <c r="O19" s="1"/>
       <c r="P19">
         <v>3.4</v>
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="1">
         <v>3.0999999999999996</v>
       </c>
       <c r="H20">
         <v>14.6</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="1">
         <v>3.3000000000000003</v>
       </c>
       <c r="J20">
         <v>25.1</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="1">
         <v>0.30000000000000004</v>
       </c>
       <c r="L20">
         <v>46.25</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="1"/>
       <c r="N20">
         <v>16.2</v>
       </c>
-      <c r="O20" s="19"/>
+      <c r="O20" s="1"/>
       <c r="P20">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="1"/>
       <c r="H21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="1"/>
       <c r="J21">
         <v>0.3</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="1"/>
       <c r="L21">
         <v>53.95</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="1"/>
       <c r="N21">
         <v>29.8</v>
       </c>
-      <c r="O21" s="19"/>
+      <c r="O21" s="1"/>
       <c r="P21">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="1">
         <v>2.3000000000000007</v>
       </c>
       <c r="H22">
         <v>11.8</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="1">
         <v>1.7999999999999998</v>
       </c>
       <c r="J22">
         <v>13.2</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="1">
         <v>0.30000000000000004</v>
       </c>
       <c r="L22">
         <v>37.25</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="1">
         <v>6</v>
       </c>
       <c r="N22">
         <v>21.2</v>
       </c>
-      <c r="O22" s="19"/>
+      <c r="O22" s="1"/>
       <c r="P22">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="1"/>
       <c r="H23">
         <v>4.5</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="1"/>
       <c r="J23">
         <v>10.8</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="1">
         <v>0.1</v>
       </c>
       <c r="L23">
         <v>37.5</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="1">
         <v>5.9999999999999991</v>
       </c>
       <c r="N23">
         <v>31</v>
       </c>
-      <c r="O23" s="19"/>
+      <c r="O23" s="1"/>
       <c r="P23">
         <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="1">
         <v>2.5</v>
       </c>
       <c r="H24">
         <v>13.299999999999999</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="1">
         <v>2.4000000000000004</v>
       </c>
       <c r="J24">
         <v>16.899999999999999</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="1">
         <v>0.30000000000000004</v>
       </c>
       <c r="L24">
         <v>44.75</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="1">
         <v>6.1</v>
       </c>
       <c r="N24">
         <v>24.6</v>
       </c>
-      <c r="O24" s="19"/>
+      <c r="O24" s="1"/>
       <c r="P24">
         <v>10</v>
       </c>
@@ -9797,29 +11547,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E00D367-A233-A345-BE16-D04B58173A04}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9832,8 +11588,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9846,8 +11605,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9855,13 +11617,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9869,13 +11634,13 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9883,13 +11648,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9903,7 +11668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9917,7 +11682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9925,37 +11690,23 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
         <v>3</v>
       </c>
     </row>

--- a/2022_Model_Analysis.xlsx
+++ b/2022_Model_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jesse/Documents/MyStuff/NBA Betting/MAMBA-NBA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7E1F1-4477-E444-9526-60C7C3DB32E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010FE522-3315-B641-AE1E-9E279A45125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="24040" windowHeight="14200" activeTab="4" xr2:uid="{B86B4991-FA4B-7E49-82D5-A0F8A8C69F1D}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="24040" windowHeight="14200" activeTab="2" xr2:uid="{B86B4991-FA4B-7E49-82D5-A0F8A8C69F1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="77">
   <si>
     <t>eFG</t>
   </si>
@@ -2156,21 +2156,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CCA421-B539-BD4D-8123-0C9079951704}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2178,639 +2175,139 @@
         <v>7</v>
       </c>
       <c r="C1" s="21"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="O1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3">
-        <f>MIN(J3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>B18</f>
-        <v>0.35270000000000001</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1">
-        <f>RANK(O3,$O$3:$O$14,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O14" si="0">MIN(J4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P14" si="1">B19</f>
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1">
-        <f t="shared" ref="R4:R14" si="2">RANK(O4,$O$3:$O$14,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>0.34889999999999999</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0.3513</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0.34889999999999999</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0.37540000000000001</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0.36780000000000002</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0.41560000000000002</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0.35980000000000001</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0.36830000000000002</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0.35270000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>0.34470000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.34889999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>0.3513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>0.34889999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>0.37540000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>0.36780000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>0.35549999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>0.41560000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28">
-        <v>0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>0.36830000000000002</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="O1:R1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:M3">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:M4">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:M6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:M7">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:M8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:M9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:M10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:M11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:P14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:M12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B29">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B26 B28:B29">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B6429C-14C5-AA4B-AAAE-7603181B821B}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2818,907 +2315,241 @@
         <v>7</v>
       </c>
       <c r="C1" s="21"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="O1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3">
-        <f>MIN(J3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="1">
-        <f>RANK(O3,$O$3:$O$14,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O14" si="0">MIN(J4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" ref="R4:R14" si="1">RANK(O4,$O$3:$O$14,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
+      <c r="F16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G16">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F17" t="s">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G17">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="G18">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="G19">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F21" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="J16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="21"/>
-      <c r="O16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18">
-        <f>MIN(J18:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="1">
-        <f>RANK(O18,$O$3:$O$14,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ref="O19:O29" si="2">MIN(J19:M19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" ref="R19:R29" si="3">RANK(O19,$O$3:$O$14,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="O16:R17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:M3">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:M5">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:M4">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:M6">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:M7">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:M8">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:M9">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:M10">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:M11">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:P14">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:M12">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:M18">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:M20">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:M19">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:M21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:M22">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:M23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:M24">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:M25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:M26">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:P29">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:M27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3727,7 +2558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675E32C9-357A-FE45-9496-CF3451BB8C91}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6257,7 +5090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839F9A0F-BC90-5E4B-81CF-AA3A945FA414}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8788,7 +7623,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8926,11 +7761,11 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9">
-        <f>AVERAGE(C5:F5)</f>
+        <f t="shared" ref="K5:K10" si="0">AVERAGE(C5:F5)</f>
         <v>4.45</v>
       </c>
       <c r="L5" s="9">
-        <f>AVERAGE(G5:J5)</f>
+        <f t="shared" ref="L5:L10" si="1">AVERAGE(G5:J5)</f>
         <v>2.91</v>
       </c>
     </row>
@@ -8958,11 +7793,11 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9">
-        <f>AVERAGE(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
       <c r="L6" s="9">
-        <f>AVERAGE(G6:J6)</f>
+        <f t="shared" si="1"/>
         <v>3.65</v>
       </c>
     </row>
@@ -8990,11 +7825,11 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="9">
-        <f>AVERAGE(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>8.0500000000000007</v>
       </c>
       <c r="L7" s="9">
-        <f>AVERAGE(G7:J7)</f>
+        <f t="shared" si="1"/>
         <v>1.23</v>
       </c>
     </row>
@@ -9022,11 +7857,11 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="9">
-        <f>AVERAGE(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>3.2749999999999999</v>
       </c>
       <c r="L8" s="9">
-        <f>AVERAGE(G8:J8)</f>
+        <f t="shared" si="1"/>
         <v>3.3250000000000002</v>
       </c>
     </row>
@@ -9044,11 +7879,11 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="9" t="e">
-        <f>AVERAGE(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="9" t="e">
-        <f>AVERAGE(G9:J9)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9066,11 +7901,11 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9" t="e">
-        <f>AVERAGE(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="9" t="e">
-        <f>AVERAGE(G10:J10)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" t="s">
@@ -9115,11 +7950,11 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10">
-        <f>AVERAGE(C12:F12)</f>
+        <f t="shared" ref="K12:K17" si="2">AVERAGE(C12:F12)</f>
         <v>6.45</v>
       </c>
       <c r="L12" s="10">
-        <f>AVERAGE(G12:J12)</f>
+        <f t="shared" ref="L12:L17" si="3">AVERAGE(G12:J12)</f>
         <v>4.91</v>
       </c>
       <c r="N12" s="10">
@@ -9171,11 +8006,11 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10">
-        <f>AVERAGE(C13:F13)</f>
+        <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
       <c r="L13" s="10">
-        <f>AVERAGE(G13:J13)</f>
+        <f t="shared" si="3"/>
         <v>3.3250000000000002</v>
       </c>
       <c r="N13" s="10">
@@ -9195,11 +8030,11 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10">
-        <f t="shared" ref="V13:V17" si="0">AVERAGE(N13:Q13)</f>
+        <f t="shared" ref="V13:V17" si="4">AVERAGE(N13:Q13)</f>
         <v>11</v>
       </c>
       <c r="W13" s="10">
-        <f t="shared" ref="W13:W17" si="1">AVERAGE(R13:U13)</f>
+        <f t="shared" ref="W13:W17" si="5">AVERAGE(R13:U13)</f>
         <v>3.56</v>
       </c>
     </row>
@@ -9227,11 +8062,11 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10">
-        <f>AVERAGE(C14:F14)</f>
+        <f t="shared" si="2"/>
         <v>8.1</v>
       </c>
       <c r="L14" s="10">
-        <f>AVERAGE(G14:J14)</f>
+        <f t="shared" si="3"/>
         <v>4.3650000000000002</v>
       </c>
       <c r="N14" s="10">
@@ -9251,11 +8086,11 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.65</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
     </row>
@@ -9283,11 +8118,11 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10">
-        <f>AVERAGE(C15:F15)</f>
+        <f t="shared" si="2"/>
         <v>11.05</v>
       </c>
       <c r="L15" s="10">
-        <f>AVERAGE(G15:J15)</f>
+        <f t="shared" si="3"/>
         <v>1.67</v>
       </c>
       <c r="N15" s="10">
@@ -9307,11 +8142,11 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12.15</v>
       </c>
       <c r="W15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.575</v>
       </c>
     </row>
@@ -9329,11 +8164,11 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="e">
-        <f>AVERAGE(C16:F16)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="10" t="e">
-        <f>AVERAGE(G16:J16)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="10"/>
@@ -9345,11 +8180,11 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W16" s="10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9367,11 +8202,11 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="e">
-        <f>AVERAGE(C17:F17)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="10" t="e">
-        <f>AVERAGE(G17:J17)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="10"/>
@@ -9383,11 +8218,11 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W17" s="10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10537,7 +9372,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
